--- a/biology/Zoologie/Étourneau_de_Rothschild/Étourneau_de_Rothschild.xlsx
+++ b/biology/Zoologie/Étourneau_de_Rothschild/Étourneau_de_Rothschild.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Rothschild</t>
+          <t>Étourneau_de_Rothschild</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucopsar rothschildi
 L'Étourneau de Rothschild (Leucopsar rothschildi), également connu sous les noms d'Étourneau de Bali, Martin de Rothschild ou Bali starling est une espèce de passereaux de la famille des Sturnidae en voie d'extinction. Espèce endémique de Bali, dont il est un emblème et où il figure sur des monnaies, il fut découvert en 1910 par le baron Walter de Rothschild, banquier et zoologiste.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Rothschild</t>
+          <t>Étourneau_de_Rothschild</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau d'une longueur d'environ 25 cm, apparenté aux mainates. Il est entièrement blanc, à l'exception de la pointe des ailes et la queue qui sont noirs. Il possède également une huppe. Le tour de son œil est nu et laisse apparaître une peau de couleur bleue. La femelle est un peu plus petite que le mâle et sa huppe est plus courte.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Rothschild</t>
+          <t>Étourneau_de_Rothschild</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé dans le genre monotypique Leucospar, il se rapproche de l'Étourneau des pagodes et fait partie de la famille des sturnidés. Son nom scientifique est Leucopsar rothschildi car il fut identifié en 1910 par le baron Walter de Rothschild (1868-1937), banquier et ornithologiste britannique qui finança une importante expédition en Indonésie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Rothschild</t>
+          <t>Étourneau_de_Rothschild</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique du parc national de Bali occidental. L'autre espèce endémique de l'île est le tigre de Bali (sous-espèce), déclarée éteinte en 1937 mais redécouverte par Victor von Plessen. 
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Rothschild</t>
+          <t>Étourneau_de_Rothschild</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Symbole de la faune de Bali</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1991, cet oiseau a été déclaré symbole de la faune de Bali, son appellation locale étant jalak bali[1] ou bali starling.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1991, cet oiseau a été déclaré symbole de la faune de Bali, son appellation locale étant jalak bali ou bali starling.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Rothschild</t>
+          <t>Étourneau_de_Rothschild</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Danger critique d'extinction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Étourneau de Rothschild est en danger critique d'extinction et frôle l'extinction à l'état sauvage depuis plusieurs années selon le rapport de 2006 de BirdLife International. 
 Il a été victime de sa grande beauté et de l'explosion du commerce des oiseaux exotiques. C'est pourquoi un programme européen d'élevage a été mis en place pour tenter de sauver l'espèce dont l'avenir n'est malgré tout pas assuré, la population en liberté (oiseaux élevés en captivité et relâchés bagués) étant estimée à moins de 200 individus. Il resterait extrêmement peu d'oiseaux nés à l'état sauvage non bagués, les derniers individus se trouvant dans le parc national de Bali Barat. Leur nombre en captivité dans le monde est estimé à un millier.
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_de_Rothschild</t>
+          <t>Étourneau_de_Rothschild</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son habitat naturel, l'Étourneau de Rothschild est peu visible. Il se réfugie au sommet des arbres. Contrairement aux autres espèces d'étourneau, il n'accède au niveau du sol que pour boire. Il s'agit probablement d'une adaptation pour se prémunir contre les prédateurs.
 C'est aussi un animal sociable, vivant en groupes sédentaires, sauf pendant les périodes de reproduction.
